--- a/app/src/main/res/raw/sajumakgi.xlsx
+++ b/app/src/main/res/raw/sajumakgi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\taekwondo app resource\step xls file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A3B9B9-E291-4B4F-941A-3272D4850670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E856C386-C95F-441F-B6EB-895D26760FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49815" yWindow="1740" windowWidth="16920" windowHeight="11775" xr2:uid="{72A8CDC3-5869-4647-8C2C-11E35F420B48}"/>
+    <workbookView xWindow="43290" yWindow="1875" windowWidth="16920" windowHeight="11775" xr2:uid="{72A8CDC3-5869-4647-8C2C-11E35F420B48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>Parallel ready stance toward D.</t>
   </si>
@@ -61,6 +61,114 @@
   </si>
   <si>
     <t>Left walking stance knife-hand low block toward B.</t>
+  </si>
+  <si>
+    <t>Move the right foot to B, forming a right walking stance toward B while executing a middle side block to B with the right inner forearm.</t>
+  </si>
+  <si>
+    <t>Right walking stance inner forearm middle side block toward B.</t>
+  </si>
+  <si>
+    <t>Application - Shorter opponent</t>
+  </si>
+  <si>
+    <t>Move the right foot to D, forming a left walking stance toward C while executing a low block to C with the left knife-hand.</t>
+  </si>
+  <si>
+    <t>Left walking stance knife-hand low block toward C.</t>
+  </si>
+  <si>
+    <t>Top View</t>
+  </si>
+  <si>
+    <t>Side View</t>
+  </si>
+  <si>
+    <t>Move the right foot to C, forming a right walking stance toward C while executing a middle side block to C with the right inner forearm.</t>
+  </si>
+  <si>
+    <t>Right walking stance inner forearm middle side block toward C.</t>
+  </si>
+  <si>
+    <t>Other View</t>
+  </si>
+  <si>
+    <t>Move the right foot to B, forming a left walking stance toward A while executing a low block to A with the left knife-hand.</t>
+  </si>
+  <si>
+    <t>Left walking stance knife-hand low block toward A.</t>
+  </si>
+  <si>
+    <t>Move the right foot to A, forming a right walking stance toward A while executing a middle side block to A with the right inner forearm.</t>
+  </si>
+  <si>
+    <t>Right walking stance inner forearm middle side block toward A.</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>END. Bring the right foot back to ready posture.</t>
+  </si>
+  <si>
+    <t>Parellel ready stance toward D.</t>
+  </si>
+  <si>
+    <t>Move the left foot to C, forming a right walking stance toward D while executing a low block to D with the right knife-hand.</t>
+  </si>
+  <si>
+    <t>Right walking stance knife-hand low block toward D.</t>
+  </si>
+  <si>
+    <t>Move the left foot to D, forming a left walking stance toward D while executing a middle side block to D with the left inner forearm.</t>
+  </si>
+  <si>
+    <t>Left walking stance inner forearm middle side block toward D.</t>
+  </si>
+  <si>
+    <t>Application - Top View</t>
+  </si>
+  <si>
+    <t>Move the left foot to B, forming a right walking stance toward A while executing a low block to A with the right knife-hand.</t>
+  </si>
+  <si>
+    <t>Right walking stance knife-hand low block toward A.</t>
+  </si>
+  <si>
+    <t>Move the left foot to A, forming a left walking stance toward A while executing a middle side block to A with the left inner forearm.</t>
+  </si>
+  <si>
+    <t>Left walking stance inner forearm middle side block toward A.</t>
+  </si>
+  <si>
+    <t>Move the left foot to D, forming a right walking stance toward C while executing a low block to C with the right knife-hand.</t>
+  </si>
+  <si>
+    <t>Right walking stance knife-hand low block toward C.</t>
+  </si>
+  <si>
+    <t>Move the left foot to C, forming a left walking stance toward C while executing a middle side block to C with the left inner forearm.</t>
+  </si>
+  <si>
+    <t>Left walking stance inner forearm middle side block toward C.</t>
+  </si>
+  <si>
+    <t>Move the left foot to A, forming a right walking stance toward B while executing a low block to B with the right knife-hand.</t>
+  </si>
+  <si>
+    <t>Right walking stance knife-hand low block toward B.</t>
+  </si>
+  <si>
+    <t>Move the left foot to B, forming a left walking stance toward B while executing a middle side block to B with the left inner forearm.</t>
+  </si>
+  <si>
+    <t>Left walking stance inner forearm middle side block toward B.</t>
+  </si>
+  <si>
+    <t>END. Bring the left foot back to ready posture.</t>
+  </si>
+  <si>
+    <t>Back View</t>
   </si>
 </sst>
 </file>
@@ -427,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C9D90E-1E3B-4800-AAA5-AA9225548888}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,87 +547,354 @@
     <col min="2" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>5</v>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
-        <v>5</v>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>5</v>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2">
         <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
